--- a/results/pvalue_SIDER_rare_DGI_AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_DGI_AUROC.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16.841</t>
+          <t>11.177</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17.388</t>
+          <t>11.104</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>7.708</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20.648</t>
+          <t>14.927</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.008</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15.132</t>
+          <t>15.114</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15.134</t>
+          <t>15.117</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.859</t>
+          <t>14.833</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.316</t>
+          <t>20.293</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.934</t>
+          <t>9.493</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
